--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-anyreport-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-anyreport-2023-11-28.xlsx
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
       <c r="D12">
-        <v>85.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="E12">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="F12">
-        <v>92.60000000000001</v>
+        <v>93.89999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -942,639 +942,639 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oslo University Hospital</t>
+          <t>Örebro University</t>
         </is>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>78.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E27">
-        <v>69.5</v>
+        <v>46.9</v>
       </c>
       <c r="F27">
-        <v>85.3</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oulu University Hospital</t>
+          <t>Örebro University Hospital</t>
         </is>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>31.3</v>
+        <v>5.1</v>
       </c>
       <c r="F28">
-        <v>83.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sahlgrenska University Hospital</t>
+          <t>Oslo University Hospital</t>
         </is>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E29">
-        <v>59.8</v>
+        <v>69.5</v>
       </c>
       <c r="F29">
-        <v>85.8</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skane University Hospital</t>
+          <t>Oulu University Hospital</t>
         </is>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>82.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>62.9</v>
+        <v>31.3</v>
       </c>
       <c r="F30">
-        <v>93</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>St. Olav’s University Hospital</t>
+          <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>58.3</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>38.8</v>
+        <v>59.8</v>
       </c>
       <c r="F31">
-        <v>75.5</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steno Diabetes Center Copenhagen</t>
+          <t>Skane University Hospital</t>
         </is>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>84.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E32">
-        <v>57.8</v>
+        <v>62.9</v>
       </c>
       <c r="F32">
-        <v>97.3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stockholm South General Hospital</t>
+          <t>St. Olav’s University Hospital</t>
         </is>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>58.3</v>
       </c>
       <c r="E33">
-        <v>43.9</v>
+        <v>38.8</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tampere University Hospital</t>
+          <t>Steno Diabetes Center Copenhagen</t>
         </is>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>81.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E34">
-        <v>61.5</v>
+        <v>57.8</v>
       </c>
       <c r="F34">
-        <v>92.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The National University Hospital of Iceland</t>
+          <t>Stockholm South General Hospital</t>
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E35">
-        <v>37.6</v>
+        <v>43.9</v>
       </c>
       <c r="F35">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turku University Hospital</t>
+          <t>Tampere University Hospital</t>
         </is>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>58.3</v>
+        <v>81.8</v>
       </c>
       <c r="E36">
-        <v>44.3</v>
+        <v>61.5</v>
       </c>
       <c r="F36">
-        <v>71.2</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UiT The Arctic University of Norway</t>
+          <t>The National University Hospital of Iceland</t>
         </is>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>71.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="E37">
-        <v>45.4</v>
+        <v>37.6</v>
       </c>
       <c r="F37">
-        <v>88.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Umeå University</t>
+          <t>Turku University Hospital</t>
         </is>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>28</v>
       </c>
       <c r="D38">
-        <v>68.3</v>
+        <v>58.3</v>
       </c>
       <c r="E38">
-        <v>53</v>
+        <v>44.3</v>
       </c>
       <c r="F38">
-        <v>80.40000000000001</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>University Hospital of North Norway</t>
+          <t>UiT The Arctic University of Norway</t>
         </is>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>64.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E39">
-        <v>41.3</v>
+        <v>45.4</v>
       </c>
       <c r="F39">
-        <v>82.69999999999999</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>University Hospital of Umeå</t>
+          <t>Umeå University</t>
         </is>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>68.3</v>
       </c>
       <c r="E40">
-        <v>17.8</v>
+        <v>53</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>University of Bergen</t>
+          <t>University Hospital of North Norway</t>
         </is>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>71</v>
+        <v>64.7</v>
       </c>
       <c r="E41">
-        <v>53.40000000000001</v>
+        <v>41.3</v>
       </c>
       <c r="F41">
-        <v>83.89999999999999</v>
+        <v>82.69999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>University of Copenhagen</t>
+          <t>University Hospital of Umeå</t>
         </is>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>73.2</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>63.6</v>
+        <v>17.8</v>
       </c>
       <c r="F42">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>University of Eastern Finland</t>
+          <t>University of Bergen</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>66.7</v>
+        <v>71</v>
       </c>
       <c r="E43">
-        <v>39.1</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="F43">
-        <v>86.2</v>
+        <v>83.89999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>University of Helsinki</t>
+          <t>University of Copenhagen</t>
         </is>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D44">
+        <v>73.2</v>
+      </c>
+      <c r="E44">
+        <v>63.6</v>
+      </c>
+      <c r="F44">
         <v>81</v>
-      </c>
-      <c r="E44">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <v>92.30000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>University of Iceland</t>
+          <t>University of Eastern Finland</t>
         </is>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="E45">
-        <v>37.6</v>
+        <v>39.1</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>University of Oslo</t>
+          <t>University of Helsinki</t>
         </is>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>91.3</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>73.2</v>
+        <v>60</v>
       </c>
       <c r="F46">
-        <v>98.5</v>
+        <v>92.30000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>University of Oulu</t>
+          <t>University of Iceland</t>
         </is>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>48.4</v>
+        <v>37.6</v>
       </c>
       <c r="F47">
-        <v>82.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>University of Southern Denmark</t>
+          <t>University of Oslo</t>
         </is>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>90.5</v>
+        <v>91.3</v>
       </c>
       <c r="E48">
-        <v>77.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="F48">
-        <v>96.2</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>University of Tampere</t>
+          <t>University of Oulu</t>
         </is>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E49">
-        <v>70.09999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>University of Turku</t>
+          <t>University of Southern Denmark</t>
         </is>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>90.5</v>
       </c>
       <c r="E50">
-        <v>53.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F50">
-        <v>88.8</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uppsala Academic Hospital</t>
+          <t>University of Tampere</t>
         </is>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>77.8</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>45.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F51">
-        <v>96.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uppsala University</t>
+          <t>University of Turku</t>
         </is>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>64.7</v>
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>53.1</v>
       </c>
       <c r="F52">
-        <v>76.40000000000001</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zealand University Hospital</t>
+          <t>Uppsala Academic Hospital</t>
         </is>
       </c>
       <c r="B53">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>85.7</v>
+        <v>77.8</v>
       </c>
       <c r="E53">
-        <v>68.5</v>
+        <v>45.3</v>
       </c>
       <c r="F53">
-        <v>94.3</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Örebro University</t>
+          <t>Uppsala University</t>
         </is>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>70.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="E54">
-        <v>46.9</v>
+        <v>51</v>
       </c>
       <c r="F54">
-        <v>86.7</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Örebro University Hospital</t>
+          <t>Zealand University Hospital</t>
         </is>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="E55">
-        <v>5.1</v>
+        <v>68.5</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>94.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-anyreport-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-stats-anyreport-2023-11-28.xlsx
@@ -443,16 +443,16 @@
         <v>186</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D4">
-        <v>83.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="E4">
-        <v>77.3</v>
+        <v>78.5</v>
       </c>
       <c r="F4">
-        <v>88</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -465,16 +465,16 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>76.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E5">
-        <v>64.90000000000001</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="F5">
-        <v>85.3</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         <v>172</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>77.3</v>
+        <v>80.2</v>
       </c>
       <c r="E8">
-        <v>70.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F8">
-        <v>82.89999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="9">
@@ -707,16 +707,16 @@
         <v>166</v>
       </c>
       <c r="C16">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16">
-        <v>78.90000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="E16">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F16">
-        <v>84.39999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -927,16 +927,16 @@
         <v>91</v>
       </c>
       <c r="C26">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>87.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="E26">
-        <v>79.60000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F26">
-        <v>93.10000000000001</v>
+        <v>93.89999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1323,16 +1323,16 @@
         <v>97</v>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>73.2</v>
+        <v>74.2</v>
       </c>
       <c r="E44">
-        <v>63.6</v>
+        <v>64.7</v>
       </c>
       <c r="F44">
-        <v>81</v>
+        <v>81.89999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1433,16 +1433,16 @@
         <v>25</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E49">
-        <v>48.4</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="F49">
-        <v>82.8</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="50">
